--- a/src/test/resources/testdata/OpenEMRdata.xlsx
+++ b/src/test/resources/testdata/OpenEMRdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E025802C-48CD-4921-A31E-80FA9080CA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FA17E1-9496-4CBA-A0E0-1A878D0434ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69209377-0B3C-48E7-9DDD-B67298380351}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidCredentialTest" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -45,13 +46,16 @@
     <t>accountant</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>English (Indian)</t>
   </si>
   <si>
     <t>OpenEMR</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>physician</t>
   </si>
 </sst>
 </file>
@@ -87,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,15 +410,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADCA43D-8D20-4840-8B2E-FDCE8A3F7D2B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,35 +438,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AB74C3-1BBF-44B7-A32C-6A8B31B5660E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>